--- a/시장분석용_정보/시장분석용_4812956000.xlsx
+++ b/시장분석용_정보/시장분석용_4812956000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="66">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,103 +160,145 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 6099601721</t>
-  </si>
-  <si>
-    <t>202002 6099601721</t>
-  </si>
-  <si>
-    <t>202003 6099601721</t>
-  </si>
-  <si>
-    <t>202004 6099601721</t>
-  </si>
-  <si>
-    <t>202005 6099601721</t>
-  </si>
-  <si>
-    <t>202006 6099601721</t>
-  </si>
-  <si>
-    <t>202007 6099601721</t>
-  </si>
-  <si>
-    <t>202008 6099601721</t>
-  </si>
-  <si>
-    <t>202009 6099601721</t>
-  </si>
-  <si>
-    <t>202010 6099601721</t>
-  </si>
-  <si>
-    <t>202011 6099601721</t>
-  </si>
-  <si>
-    <t>202012 6099601721</t>
-  </si>
-  <si>
-    <t>202101 6099601721</t>
-  </si>
-  <si>
-    <t>202102 6099601721</t>
-  </si>
-  <si>
-    <t>202103 6099601721</t>
-  </si>
-  <si>
-    <t>202104 6099601721</t>
-  </si>
-  <si>
-    <t>202105 6099601721</t>
-  </si>
-  <si>
-    <t>202106 6099601721</t>
-  </si>
-  <si>
-    <t>202107 6099601721</t>
-  </si>
-  <si>
-    <t>202108 6099601721</t>
-  </si>
-  <si>
-    <t>202109 6099601721</t>
-  </si>
-  <si>
-    <t>202110 6099601721</t>
-  </si>
-  <si>
-    <t>202111 6099601721</t>
-  </si>
-  <si>
-    <t>202112 6099601721</t>
-  </si>
-  <si>
-    <t>202201 6099601721</t>
-  </si>
-  <si>
-    <t>202202 6099601721</t>
-  </si>
-  <si>
-    <t>202203 6099601721</t>
-  </si>
-  <si>
-    <t>202204 6099601721</t>
-  </si>
-  <si>
-    <t>202205 6099601721</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>6099601721 202001</t>
+  </si>
+  <si>
+    <t>6099601721 202002</t>
+  </si>
+  <si>
+    <t>6099601721 202003</t>
+  </si>
+  <si>
+    <t>6099601721 202004</t>
+  </si>
+  <si>
+    <t>6099601721 202005</t>
+  </si>
+  <si>
+    <t>6099601721 202006</t>
+  </si>
+  <si>
+    <t>6099601721 202007</t>
+  </si>
+  <si>
+    <t>6099601721 202008</t>
+  </si>
+  <si>
+    <t>6099601721 202009</t>
+  </si>
+  <si>
+    <t>6099601721 202010</t>
+  </si>
+  <si>
+    <t>6099601721 202011</t>
+  </si>
+  <si>
+    <t>6099601721 202012</t>
+  </si>
+  <si>
+    <t>6099601721 202101</t>
+  </si>
+  <si>
+    <t>6099601721 202102</t>
+  </si>
+  <si>
+    <t>6099601721 202103</t>
+  </si>
+  <si>
+    <t>6099601721 202104</t>
+  </si>
+  <si>
+    <t>6099601721 202105</t>
+  </si>
+  <si>
+    <t>6099601721 202106</t>
+  </si>
+  <si>
+    <t>6099601721 202107</t>
+  </si>
+  <si>
+    <t>6099601721 202108</t>
+  </si>
+  <si>
+    <t>6099601721 202109</t>
+  </si>
+  <si>
+    <t>6099601721 202110</t>
+  </si>
+  <si>
+    <t>6099601721 202111</t>
+  </si>
+  <si>
+    <t>6099601721 202112</t>
+  </si>
+  <si>
+    <t>6099601721 202201</t>
+  </si>
+  <si>
+    <t>6099601721 202202</t>
+  </si>
+  <si>
+    <t>6099601721 202203</t>
+  </si>
+  <si>
+    <t>6099601721 202204</t>
+  </si>
+  <si>
+    <t>6099601721 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxMzUxIzExIyQxIyQ3IyQwMyQyNjE0ODEjNjEjJDEjJDQjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>김봉환치과의원</t>
   </si>
   <si>
-    <t>경상남도 창원시 진해구 충장로 325, 208호 (경화동, 한빛프라자)</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxMzUxIzExIyQxIyQ3IyQwMyQyNjE0ODEjNjEjJDEjJDQjJDgz</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>경상남도 창원시 진해구 충장로 325 (경화동, 한빛프라자 208호)</t>
   </si>
   <si>
     <t>치과</t>
@@ -569,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,43 +762,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>2964</v>
+        <v>2174</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>11213253</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>6099601721</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2">
+        <v>94</v>
+      </c>
+      <c r="J2">
         <v>4812956000</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
       </c>
       <c r="M2">
         <v>10788965</v>
@@ -720,96 +900,186 @@
         <v>74064</v>
       </c>
       <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>26.14</v>
+      </c>
+      <c r="T2">
+        <v>7.01</v>
+      </c>
+      <c r="U2">
+        <v>27.58</v>
+      </c>
+      <c r="V2">
+        <v>30.73</v>
+      </c>
+      <c r="W2">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>4.27</v>
+      </c>
+      <c r="Z2">
+        <v>35.07</v>
+      </c>
+      <c r="AA2">
+        <v>60.66</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0.5</v>
       </c>
-      <c r="Q2">
+      <c r="AG2">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>4.35</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>24.96</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>5.79</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>58.4</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>5.19</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0.5</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>57.09</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>23.12</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
         <v>19.29</v>
       </c>
+      <c r="AX2">
+        <v>6.62</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0.47</v>
+      </c>
+      <c r="BA2">
+        <v>41.25</v>
+      </c>
+      <c r="BB2">
+        <v>25.09</v>
+      </c>
+      <c r="BC2">
+        <v>26.56</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>6.29</v>
+      </c>
+      <c r="BF2">
+        <v>0.33</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>77.53</v>
+      </c>
+      <c r="BI2">
+        <v>99.5</v>
+      </c>
+      <c r="BJ2">
+        <v>21.4</v>
+      </c>
+      <c r="BK2">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>24498</v>
+        <v>4941</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>11213253</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>6099601721</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3">
+        <v>94</v>
+      </c>
+      <c r="J3">
         <v>4812956000</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
       </c>
       <c r="M3">
         <v>912351</v>
@@ -821,96 +1091,186 @@
         <v>21838</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4.01</v>
+      </c>
+      <c r="T3">
+        <v>15.86</v>
+      </c>
+      <c r="U3">
+        <v>12.94</v>
+      </c>
+      <c r="V3">
+        <v>63.08</v>
+      </c>
+      <c r="W3">
+        <v>4.12</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>37.72</v>
+      </c>
+      <c r="AA3">
+        <v>62.28</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>13.34</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>8.41</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>4.12</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>12.94</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>49.74</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>11.45</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>11.45</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>62.28</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>13.34</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>12.94</v>
       </c>
+      <c r="AX3">
+        <v>4.12</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>26.27</v>
+      </c>
+      <c r="BB3">
+        <v>58.16</v>
+      </c>
+      <c r="BC3">
+        <v>11.45</v>
+      </c>
+      <c r="BD3">
+        <v>13.34</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>4.12</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>100</v>
+      </c>
+      <c r="BI3">
+        <v>100</v>
+      </c>
+      <c r="BJ3">
+        <v>16.7</v>
+      </c>
+      <c r="BK3">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>45943</v>
+        <v>7702</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>11213253</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>6099601721</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4">
+        <v>94</v>
+      </c>
+      <c r="J4">
         <v>4812956000</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
       </c>
       <c r="M4">
         <v>353384</v>
@@ -922,96 +1282,186 @@
         <v>8463</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>41.21</v>
+      </c>
+      <c r="U4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="V4">
+        <v>50.66</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>19.2</v>
+      </c>
+      <c r="Z4">
+        <v>57.9</v>
+      </c>
+      <c r="AA4">
+        <v>22.9</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>37.52</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>14.03</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>8.119999999999999</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>28.21</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>12.11</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>8.119999999999999</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>28.21</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <v>51.55</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>12.11</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>51.55</v>
+      </c>
+      <c r="BB4">
+        <v>31.02</v>
+      </c>
+      <c r="BC4">
+        <v>17.43</v>
+      </c>
+      <c r="BD4">
+        <v>37.52</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>12.11</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>14.3</v>
+      </c>
+      <c r="BK4">
+        <v>14.3</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>67312</v>
+        <v>10460</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>11213253</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>6099601721</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5">
+        <v>94</v>
+      </c>
+      <c r="J5">
         <v>4812956000</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
       </c>
       <c r="M5">
         <v>963386</v>
@@ -1023,96 +1473,186 @@
         <v>17427</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>23.11</v>
+      </c>
+      <c r="U5">
+        <v>21.18</v>
+      </c>
+      <c r="V5">
+        <v>47.52</v>
+      </c>
+      <c r="W5">
+        <v>8.19</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>14.81</v>
+      </c>
+      <c r="Z5">
+        <v>62.08</v>
+      </c>
+      <c r="AA5">
+        <v>23.11</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <v>12.99</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>12.94</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>47.52</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>5.37</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>21.18</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>26.71</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>65.09999999999999</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>8.19</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>5.37</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>17.74</v>
+      </c>
+      <c r="BB5">
+        <v>49.19</v>
+      </c>
+      <c r="BC5">
+        <v>27.7</v>
+      </c>
+      <c r="BD5">
+        <v>9.81</v>
+      </c>
+      <c r="BE5">
+        <v>5.37</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>100</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>88794</v>
+        <v>13230</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>11213253</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>6099601721</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="J6">
         <v>4812956000</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
       </c>
       <c r="M6">
         <v>11116176</v>
@@ -1124,96 +1664,186 @@
         <v>86068</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>99.42</v>
       </c>
       <c r="Q6">
+        <v>0.58</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="T6">
+        <v>21.01</v>
+      </c>
+      <c r="U6">
+        <v>16.27</v>
+      </c>
+      <c r="V6">
+        <v>17.86</v>
+      </c>
+      <c r="W6">
+        <v>44.05</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>22.37</v>
+      </c>
+      <c r="Z6">
+        <v>58.79</v>
+      </c>
+      <c r="AA6">
+        <v>18.85</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>19.28</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0.5600000000000001</v>
       </c>
-      <c r="U6">
+      <c r="AK6">
         <v>0.58</v>
       </c>
-      <c r="V6">
+      <c r="AL6">
         <v>0.58</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>40.77</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>21.55</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>16.68</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>16.68</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>29.96</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>12.46</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>40.21</v>
       </c>
+      <c r="AX6">
+        <v>19.75</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>58.55</v>
+      </c>
+      <c r="BB6">
+        <v>5.02</v>
+      </c>
+      <c r="BC6">
+        <v>16.68</v>
+      </c>
+      <c r="BD6">
+        <v>1.25</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>19.49</v>
+      </c>
+      <c r="BG6">
+        <v>1.4</v>
+      </c>
+      <c r="BH6">
+        <v>52.81</v>
+      </c>
+      <c r="BI6">
+        <v>59.79</v>
+      </c>
+      <c r="BJ6">
+        <v>7.1</v>
+      </c>
+      <c r="BK6">
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>110478</v>
+        <v>15995</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>11213253</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>6099601721</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7">
+        <v>94</v>
+      </c>
+      <c r="J7">
         <v>4812956000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
       </c>
       <c r="M7">
         <v>18918503</v>
@@ -1225,96 +1855,186 @@
         <v>130896</v>
       </c>
       <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.63</v>
+      </c>
+      <c r="T7">
+        <v>8.23</v>
+      </c>
+      <c r="U7">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.34</v>
+      </c>
+      <c r="W7">
+        <v>14.54</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>14.35</v>
+      </c>
+      <c r="Z7">
+        <v>29.03</v>
+      </c>
+      <c r="AA7">
+        <v>56.63</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>0.29</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>0.41</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>1.14</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>4.09</v>
       </c>
-      <c r="U7">
+      <c r="AK7">
         <v>2.18</v>
       </c>
-      <c r="V7">
+      <c r="AL7">
         <v>1.18</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>24.57</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>11.57</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>54.57</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>1.03</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>62.44</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>25.62</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>10.91</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2.67</v>
+      </c>
+      <c r="AY7">
+        <v>0.57</v>
+      </c>
+      <c r="AZ7">
+        <v>24.32</v>
+      </c>
+      <c r="BA7">
+        <v>1.84</v>
+      </c>
+      <c r="BB7">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>4.72</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>2.67</v>
+      </c>
+      <c r="BG7">
+        <v>4.32</v>
+      </c>
+      <c r="BH7">
+        <v>75.05</v>
+      </c>
+      <c r="BI7">
+        <v>75.38</v>
+      </c>
+      <c r="BJ7">
+        <v>20</v>
+      </c>
+      <c r="BK7">
+        <v>26.7</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>132183</v>
+        <v>18768</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>11213253</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>6099601721</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="J8">
         <v>4812956000</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
       </c>
       <c r="M8">
         <v>10541788</v>
@@ -1326,96 +2046,186 @@
         <v>137353</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>7.56</v>
+      </c>
+      <c r="T8">
+        <v>11.2</v>
+      </c>
+      <c r="U8">
+        <v>80.38</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.86</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>4.82</v>
+      </c>
+      <c r="Z8">
+        <v>92.42</v>
+      </c>
+      <c r="AA8">
+        <v>2.76</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>2.06</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>74.33</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>2.12</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>3.88</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>0.63</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>16.99</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>90.77</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>7.1</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>2.13</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>3.88</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="BB8">
+        <v>1.16</v>
+      </c>
+      <c r="BC8">
+        <v>19.1</v>
+      </c>
+      <c r="BD8">
+        <v>73.17</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>100</v>
+      </c>
+      <c r="BI8">
+        <v>100</v>
+      </c>
+      <c r="BJ8">
+        <v>11.1</v>
+      </c>
+      <c r="BK8">
+        <v>22.2</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>153904</v>
+        <v>21537</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
         <v>202008</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>11213253</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>6099601721</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9">
+        <v>94</v>
+      </c>
+      <c r="J9">
         <v>4812956000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
       </c>
       <c r="M9">
         <v>13685672</v>
@@ -1427,96 +2237,186 @@
         <v>149472</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>92.83</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>7.17</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>7.17</v>
+      </c>
+      <c r="T9">
+        <v>26.95</v>
+      </c>
+      <c r="U9">
+        <v>3.79</v>
+      </c>
+      <c r="V9">
+        <v>18.55</v>
+      </c>
+      <c r="W9">
+        <v>43.53</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>3.37</v>
+      </c>
+      <c r="Z9">
+        <v>91.34</v>
+      </c>
+      <c r="AA9">
+        <v>5.29</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>2.97</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>1.6</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>0.32</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>13.01</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>71.31</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
         <v>10.79</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>0.74</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>98.81999999999999</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>0.19</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>0.26</v>
       </c>
+      <c r="AX9">
+        <v>87.04000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0.44</v>
+      </c>
+      <c r="BB9">
+        <v>1.42</v>
+      </c>
+      <c r="BC9">
+        <v>11.11</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>18.2</v>
+      </c>
+      <c r="BK9">
+        <v>27.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>175614</v>
+        <v>24318</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
         <v>202009</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>11213253</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>6099601721</v>
       </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="J10">
         <v>4812956000</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
       </c>
       <c r="M10">
         <v>1380859</v>
@@ -1528,96 +2428,186 @@
         <v>30022</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>23.72</v>
+      </c>
+      <c r="T10">
+        <v>35.49</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>12.84</v>
+      </c>
+      <c r="W10">
+        <v>27.94</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>2.81</v>
+      </c>
+      <c r="Z10">
+        <v>24.17</v>
+      </c>
+      <c r="AA10">
+        <v>73.02</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>2.04</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>29.61</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>15.69</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>11.1</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>12.84</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>28.72</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>2.04</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>13.06</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>35.05</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>38.75</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
         <v>11.1</v>
       </c>
+      <c r="AX10">
+        <v>2.04</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>23.95</v>
+      </c>
+      <c r="BB10">
+        <v>55.51</v>
+      </c>
+      <c r="BC10">
+        <v>18.5</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>2.04</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>5.44</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+      <c r="BI10">
+        <v>100</v>
+      </c>
+      <c r="BJ10">
+        <v>33.3</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>197350</v>
+        <v>27115</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
         <v>202010</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>11213253</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>6099601721</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11">
+        <v>94</v>
+      </c>
+      <c r="J11">
         <v>4812956000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
       </c>
       <c r="M11">
         <v>4575780</v>
@@ -1629,96 +2619,186 @@
         <v>49628</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>44.93</v>
+      </c>
+      <c r="T11">
+        <v>40.78</v>
+      </c>
+      <c r="U11">
+        <v>4.85</v>
+      </c>
+      <c r="V11">
+        <v>8.34</v>
+      </c>
+      <c r="W11">
+        <v>1.1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2.43</v>
+      </c>
+      <c r="Z11">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>13.22</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>1.21</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>39.18</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>2.32</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>1.25</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>51.36</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>4.68</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>5.73</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>41.65</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>52.61</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>2.46</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>49.17</v>
+      </c>
+      <c r="BB11">
+        <v>41.37</v>
+      </c>
+      <c r="BC11">
+        <v>7</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1.21</v>
+      </c>
+      <c r="BG11">
+        <v>1.22</v>
+      </c>
+      <c r="BH11">
+        <v>100</v>
+      </c>
+      <c r="BI11">
+        <v>100</v>
+      </c>
+      <c r="BJ11">
+        <v>30</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>219087</v>
+        <v>29902</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
         <v>202011</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>11213253</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>6099601721</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12">
+        <v>94</v>
+      </c>
+      <c r="J12">
         <v>4812956000</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
       </c>
       <c r="M12">
         <v>6487517</v>
@@ -1730,96 +2810,186 @@
         <v>60229</v>
       </c>
       <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>7.98</v>
+      </c>
+      <c r="T12">
+        <v>2.46</v>
+      </c>
+      <c r="U12">
+        <v>0.12</v>
+      </c>
+      <c r="V12">
+        <v>0.98</v>
+      </c>
+      <c r="W12">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1.03</v>
+      </c>
+      <c r="Z12">
+        <v>87.81999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>11.15</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>1.21</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>2.2</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>8.19</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
         <v>5.58</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>0.12</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>1.8</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>80.90000000000001</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>1.21</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>8.44</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>7.78</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>80.52</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>0.65</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
         <v>1.4</v>
       </c>
+      <c r="AX12">
+        <v>6.25</v>
+      </c>
+      <c r="AY12">
+        <v>0.55</v>
+      </c>
+      <c r="AZ12">
+        <v>0.12</v>
+      </c>
+      <c r="BA12">
+        <v>1.8</v>
+      </c>
+      <c r="BB12">
+        <v>85.22</v>
+      </c>
+      <c r="BC12">
+        <v>6.07</v>
+      </c>
+      <c r="BD12">
+        <v>3.57</v>
+      </c>
+      <c r="BE12">
+        <v>1.21</v>
+      </c>
+      <c r="BF12">
+        <v>4.66</v>
+      </c>
+      <c r="BG12">
+        <v>3.02</v>
+      </c>
+      <c r="BH12">
+        <v>97.14</v>
+      </c>
+      <c r="BI12">
+        <v>97.14</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>21.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>240893</v>
+        <v>32689</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
         <v>202012</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>11213253</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>6099601721</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13">
+        <v>94</v>
+      </c>
+      <c r="J13">
         <v>4812956000</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
       </c>
       <c r="M13">
         <v>6056670</v>
@@ -1831,96 +3001,186 @@
         <v>47380</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>17.55</v>
+      </c>
+      <c r="T13">
+        <v>38.94</v>
+      </c>
+      <c r="U13">
+        <v>4.68</v>
+      </c>
+      <c r="V13">
+        <v>2.64</v>
+      </c>
+      <c r="W13">
+        <v>36.19</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>2.28</v>
+      </c>
+      <c r="Z13">
+        <v>45.64</v>
+      </c>
+      <c r="AA13">
+        <v>52.08</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>0.68</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <v>1.56</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>32.93</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>8.25</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>18.32</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>38.26</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>34.66</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>36.83</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>11.07</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>1.09</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
         <v>16.35</v>
       </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>1.62</v>
+      </c>
+      <c r="BA13">
+        <v>23.71</v>
+      </c>
+      <c r="BB13">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="BC13">
+        <v>4.13</v>
+      </c>
+      <c r="BD13">
+        <v>32.5</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>36.33</v>
+      </c>
+      <c r="BH13">
+        <v>100</v>
+      </c>
+      <c r="BI13">
+        <v>100</v>
+      </c>
+      <c r="BJ13">
+        <v>14.3</v>
+      </c>
+      <c r="BK13">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>262723</v>
+        <v>35484</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
         <v>202101</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>11213253</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>6099601721</v>
       </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14">
+        <v>94</v>
+      </c>
+      <c r="J14">
         <v>4812956000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
       </c>
       <c r="M14">
         <v>4712649</v>
@@ -1932,7 +3192,7 @@
         <v>92750</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1941,87 +3201,177 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>24.91</v>
+      </c>
+      <c r="T14">
+        <v>0.99</v>
+      </c>
+      <c r="U14">
+        <v>1.82</v>
+      </c>
+      <c r="V14">
         <v>0.37</v>
       </c>
-      <c r="T14">
+      <c r="W14">
+        <v>71.91</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1.56</v>
+      </c>
+      <c r="Z14">
+        <v>94.84</v>
+      </c>
+      <c r="AA14">
+        <v>3.6</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0.37</v>
+      </c>
+      <c r="AJ14">
         <v>91.64</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>4.33</v>
       </c>
-      <c r="W14">
+      <c r="AM14">
         <v>1.82</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>1.83</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>38.1</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>6.17</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>53.91</v>
       </c>
-      <c r="AF14">
+      <c r="AV14">
         <v>1.82</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>2.56</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>1.78</v>
+      </c>
+      <c r="BA14">
+        <v>2.86</v>
+      </c>
+      <c r="BB14">
+        <v>1.16</v>
+      </c>
+      <c r="BC14">
+        <v>91.64</v>
+      </c>
+      <c r="BD14">
+        <v>0.37</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>2.56</v>
+      </c>
+      <c r="BG14">
+        <v>1.83</v>
+      </c>
+      <c r="BH14">
+        <v>100</v>
+      </c>
+      <c r="BI14">
+        <v>100</v>
+      </c>
+      <c r="BJ14">
+        <v>12.5</v>
+      </c>
+      <c r="BK14">
+        <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>284556</v>
+        <v>38279</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
         <v>202102</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>11213253</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>6099601721</v>
       </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15">
+        <v>94</v>
+      </c>
+      <c r="J15">
         <v>4812956000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
       </c>
       <c r="M15">
         <v>3777281</v>
@@ -2033,96 +3383,186 @@
         <v>41272</v>
       </c>
       <c r="P15">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>6.85</v>
+      </c>
+      <c r="T15">
+        <v>9.76</v>
+      </c>
+      <c r="U15">
+        <v>2.15</v>
+      </c>
+      <c r="V15">
+        <v>32.95</v>
+      </c>
+      <c r="W15">
+        <v>48.28</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0.89</v>
+      </c>
+      <c r="Z15">
+        <v>83.05</v>
+      </c>
+      <c r="AA15">
+        <v>16.06</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>2.25</v>
       </c>
-      <c r="Q15">
+      <c r="AG15">
         <v>2.15</v>
       </c>
-      <c r="R15">
+      <c r="AH15">
         <v>2.79</v>
       </c>
-      <c r="S15">
+      <c r="AI15">
         <v>20.19</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>7.39</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>65.23</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>67.02</v>
       </c>
-      <c r="AD15">
+      <c r="AT15">
         <v>4.94</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
         <v>28.04</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>2.15</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>2.25</v>
+      </c>
+      <c r="BA15">
+        <v>2.79</v>
+      </c>
+      <c r="BB15">
+        <v>28.04</v>
+      </c>
+      <c r="BC15">
+        <v>64.77</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>20.19</v>
+      </c>
+      <c r="BH15">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="BI15">
+        <v>97.75</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>306365</v>
+        <v>41069</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
         <v>202103</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>11213253</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>6099601721</v>
       </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16">
+        <v>94</v>
+      </c>
+      <c r="J16">
         <v>4812956000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
       </c>
       <c r="M16">
         <v>9283617</v>
@@ -2134,96 +3574,186 @@
         <v>55467</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>41.87</v>
+      </c>
+      <c r="T16">
+        <v>23.15</v>
+      </c>
+      <c r="U16">
+        <v>16.46</v>
+      </c>
+      <c r="V16">
+        <v>5.68</v>
+      </c>
+      <c r="W16">
+        <v>12.84</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>23.89</v>
+      </c>
+      <c r="Z16">
+        <v>43.35</v>
+      </c>
+      <c r="AA16">
+        <v>32.76</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>1.86</v>
       </c>
-      <c r="R16">
+      <c r="AH16">
         <v>0.38</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>9.119999999999999</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>0.28</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>0.18</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>88.18000000000001</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>76.91</v>
       </c>
-      <c r="AD16">
+      <c r="AT16">
         <v>21</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>1.57</v>
       </c>
-      <c r="AF16">
+      <c r="AV16">
         <v>0.18</v>
       </c>
-      <c r="AG16">
+      <c r="AW16">
         <v>0.34</v>
       </c>
+      <c r="AX16">
+        <v>0.28</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0.46</v>
+      </c>
+      <c r="BA16">
+        <v>2.29</v>
+      </c>
+      <c r="BB16">
+        <v>8.74</v>
+      </c>
+      <c r="BC16">
+        <v>88.22</v>
+      </c>
+      <c r="BD16">
+        <v>1.86</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0.28</v>
+      </c>
+      <c r="BG16">
+        <v>22.56</v>
+      </c>
+      <c r="BH16">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="BI16">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="BJ16">
+        <v>20</v>
+      </c>
+      <c r="BK16">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>328316</v>
+        <v>43869</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
         <v>202104</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>11213253</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>6099601721</v>
       </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17">
+        <v>94</v>
+      </c>
+      <c r="J17">
         <v>4812956000</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
       </c>
       <c r="M17">
         <v>3730369</v>
@@ -2235,7 +3765,7 @@
         <v>55838</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2244,87 +3774,177 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>14.84</v>
+      </c>
+      <c r="T17">
+        <v>48.22</v>
+      </c>
+      <c r="U17">
+        <v>3.49</v>
+      </c>
+      <c r="V17">
+        <v>2.04</v>
+      </c>
+      <c r="W17">
+        <v>31.42</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>22.04</v>
+      </c>
+      <c r="Z17">
+        <v>8.32</v>
+      </c>
+      <c r="AA17">
+        <v>69.64</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>25.09</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>50.48</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>12.98</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>3.82</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>7.65</v>
       </c>
-      <c r="Z17">
+      <c r="AP17">
         <v>2.26</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>50.7</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>6.89</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>33.82</v>
       </c>
-      <c r="AF17">
+      <c r="AV17">
         <v>6.34</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>11.02</v>
+      </c>
+      <c r="BA17">
+        <v>8</v>
+      </c>
+      <c r="BB17">
+        <v>25.87</v>
+      </c>
+      <c r="BC17">
+        <v>55.1</v>
+      </c>
+      <c r="BD17">
+        <v>3.93</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BH17">
+        <v>100</v>
+      </c>
+      <c r="BI17">
+        <v>100</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>18.2</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>350319</v>
+        <v>46677</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
         <v>202105</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>11213253</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>6099601721</v>
       </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18">
+        <v>94</v>
+      </c>
+      <c r="J18">
         <v>4812956000</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
       </c>
       <c r="M18">
         <v>4610697</v>
@@ -2336,96 +3956,186 @@
         <v>53441</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>7.53</v>
+      </c>
+      <c r="T18">
+        <v>7.13</v>
+      </c>
+      <c r="U18">
+        <v>0.4</v>
+      </c>
+      <c r="V18">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="W18">
+        <v>4.18</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>2.45</v>
+      </c>
+      <c r="Z18">
+        <v>84.37</v>
+      </c>
+      <c r="AA18">
+        <v>13.18</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>1.01</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>12.53</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>80.3</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>2.06</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>4.11</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>84.77</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>13.64</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>0.95</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
         <v>0.65</v>
       </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>13.24</v>
+      </c>
+      <c r="BB18">
+        <v>80.3</v>
+      </c>
+      <c r="BC18">
+        <v>3.46</v>
+      </c>
+      <c r="BD18">
+        <v>80.3</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0.62</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>99.38</v>
+      </c>
+      <c r="BI18">
+        <v>99.38</v>
+      </c>
+      <c r="BJ18">
+        <v>37.5</v>
+      </c>
+      <c r="BK18">
+        <v>25</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>372358</v>
+        <v>49494</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
         <v>202106</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>11213253</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>6099601721</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19">
+        <v>94</v>
+      </c>
+      <c r="J19">
         <v>4812956000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>95</v>
       </c>
       <c r="M19">
         <v>6994412</v>
@@ -2437,96 +4147,186 @@
         <v>92287</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.48</v>
+      </c>
+      <c r="T19">
+        <v>28.23</v>
+      </c>
+      <c r="U19">
+        <v>1.59</v>
+      </c>
+      <c r="V19">
+        <v>25.28</v>
+      </c>
+      <c r="W19">
+        <v>42.42</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1.5</v>
+      </c>
+      <c r="Z19">
+        <v>30.02</v>
+      </c>
+      <c r="AA19">
+        <v>68.48</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
         <v>0.48</v>
       </c>
-      <c r="R19">
+      <c r="AH19">
         <v>25.28</v>
       </c>
-      <c r="S19">
+      <c r="AI19">
         <v>53.05</v>
       </c>
-      <c r="T19">
+      <c r="AJ19">
         <v>2.63</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>2.2</v>
       </c>
-      <c r="W19">
+      <c r="AM19">
         <v>0.98</v>
       </c>
-      <c r="X19">
+      <c r="AN19">
         <v>0.42</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>14.95</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>43.04</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>55.38</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>1.58</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>2.2</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>1.08</v>
+      </c>
+      <c r="BA19">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="BB19">
+        <v>3.45</v>
+      </c>
+      <c r="BC19">
+        <v>15.55</v>
+      </c>
+      <c r="BD19">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BE19">
+        <v>2.2</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>100</v>
+      </c>
+      <c r="BI19">
+        <v>100</v>
+      </c>
+      <c r="BJ19">
+        <v>16.7</v>
+      </c>
+      <c r="BK19">
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>394491</v>
+        <v>52310</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
         <v>202107</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>11213253</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>6099601721</v>
       </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20">
+        <v>94</v>
+      </c>
+      <c r="J20">
         <v>4812956000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>95</v>
       </c>
       <c r="M20">
         <v>9360367</v>
@@ -2538,96 +4338,186 @@
         <v>143231</v>
       </c>
       <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.24</v>
+      </c>
+      <c r="T20">
+        <v>22.15</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>54.91</v>
+      </c>
+      <c r="W20">
+        <v>20.69</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1.12</v>
+      </c>
+      <c r="Z20">
+        <v>78.52</v>
+      </c>
+      <c r="AA20">
+        <v>20.35</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>0.3</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>54.39</v>
       </c>
-      <c r="S20">
+      <c r="AI20">
         <v>2.05</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
         <v>0.38</v>
       </c>
-      <c r="W20">
+      <c r="AM20">
         <v>0.9399999999999999</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>41.5</v>
       </c>
-      <c r="Y20">
+      <c r="AO20">
         <v>0.45</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>0.3</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>57.66</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>22.79</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
         <v>19.24</v>
       </c>
+      <c r="AX20">
+        <v>0.68</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0.08</v>
+      </c>
+      <c r="BA20">
+        <v>56.55</v>
+      </c>
+      <c r="BB20">
+        <v>42.7</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0.3</v>
+      </c>
+      <c r="BF20">
+        <v>0.38</v>
+      </c>
+      <c r="BG20">
+        <v>1.06</v>
+      </c>
+      <c r="BH20">
+        <v>99.06999999999999</v>
+      </c>
+      <c r="BI20">
+        <v>99.06999999999999</v>
+      </c>
+      <c r="BJ20">
+        <v>18.2</v>
+      </c>
+      <c r="BK20">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>416601</v>
+        <v>55130</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
         <v>202108</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>11213253</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>6099601721</v>
       </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21">
+        <v>94</v>
+      </c>
+      <c r="J21">
         <v>4812956000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
       </c>
       <c r="M21">
         <v>2714434</v>
@@ -2639,96 +4529,186 @@
         <v>28405</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="Q21">
+        <v>1.82</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>17.97</v>
+      </c>
+      <c r="T21">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="U21">
+        <v>69.58</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>4.07</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>69.88</v>
+      </c>
+      <c r="Z21">
+        <v>18.15</v>
+      </c>
+      <c r="AA21">
+        <v>11.97</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>0.28</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>10.39</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>1.8</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
         <v>2.39</v>
       </c>
-      <c r="W21">
+      <c r="AM21">
         <v>1.39</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>6.78</v>
       </c>
-      <c r="Y21">
+      <c r="AO21">
         <v>76.97</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>1.82</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>11.65</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>86.53</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>2.39</v>
+      </c>
+      <c r="BA21">
+        <v>17.57</v>
+      </c>
+      <c r="BB21">
+        <v>77.58</v>
+      </c>
+      <c r="BC21">
+        <v>2.46</v>
+      </c>
+      <c r="BD21">
+        <v>2.09</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>7.97</v>
+      </c>
+      <c r="BH21">
+        <v>98.43000000000001</v>
+      </c>
+      <c r="BI21">
+        <v>99.72</v>
+      </c>
+      <c r="BJ21">
+        <v>16.7</v>
+      </c>
+      <c r="BK21">
+        <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>438753</v>
+        <v>57952</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
         <v>202109</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>11213253</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>6099601721</v>
       </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22">
+        <v>94</v>
+      </c>
+      <c r="J22">
         <v>4812956000</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
       </c>
       <c r="M22">
         <v>7021201</v>
@@ -2740,96 +4720,186 @@
         <v>72321</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.11</v>
+      </c>
+      <c r="T22">
+        <v>31.18</v>
+      </c>
+      <c r="U22">
+        <v>53.37</v>
+      </c>
+      <c r="V22">
+        <v>1.72</v>
+      </c>
+      <c r="W22">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>8.06</v>
+      </c>
+      <c r="Z22">
+        <v>53.23</v>
+      </c>
+      <c r="AA22">
+        <v>38.71</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>2.11</v>
       </c>
-      <c r="S22">
+      <c r="AI22">
         <v>14.55</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>6.23</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
         <v>37</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>40.11</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>39.3</v>
       </c>
-      <c r="AD22">
+      <c r="AT22">
         <v>9.15</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>51.18</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>0.38</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>6.23</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>53.66</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>40.11</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>6.23</v>
+      </c>
+      <c r="BG22">
+        <v>53.85</v>
+      </c>
+      <c r="BH22">
+        <v>100</v>
+      </c>
+      <c r="BI22">
+        <v>100</v>
+      </c>
+      <c r="BJ22">
+        <v>25</v>
+      </c>
+      <c r="BK22">
+        <v>37.5</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>460952</v>
+        <v>60783</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
         <v>202110</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>11213253</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>6099601721</v>
       </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23">
+        <v>94</v>
+      </c>
+      <c r="J23">
         <v>4812956000</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
       </c>
       <c r="M23">
         <v>13116795</v>
@@ -2841,96 +4911,186 @@
         <v>258550</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>78.17</v>
+      </c>
+      <c r="U23">
+        <v>1.06</v>
+      </c>
+      <c r="V23">
+        <v>0.91</v>
+      </c>
+      <c r="W23">
+        <v>19.86</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>0.41</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="Z23">
+        <v>98.67</v>
+      </c>
+      <c r="AA23">
+        <v>0.92</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0.41</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <v>2.95</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>0.41</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>0.18</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>18.37</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>77.67</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>0.18</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>3.68</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>95.17</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>0.97</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>2.95</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0.41</v>
+      </c>
+      <c r="BA23">
+        <v>18.55</v>
+      </c>
+      <c r="BB23">
+        <v>77.77</v>
+      </c>
+      <c r="BC23">
+        <v>0.31</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0.18</v>
+      </c>
+      <c r="BH23">
+        <v>100</v>
+      </c>
+      <c r="BI23">
+        <v>100</v>
+      </c>
+      <c r="BJ23">
+        <v>22.2</v>
+      </c>
+      <c r="BK23">
+        <v>11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>483223</v>
+        <v>63615</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
         <v>202111</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>11213253</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>6099601721</v>
       </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24">
+        <v>94</v>
+      </c>
+      <c r="J24">
         <v>4812956000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
       </c>
       <c r="M24">
         <v>10553036</v>
@@ -2942,96 +5102,186 @@
         <v>101732</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.26</v>
+      </c>
+      <c r="T24">
+        <v>0.44</v>
+      </c>
+      <c r="U24">
+        <v>47.74</v>
+      </c>
+      <c r="V24">
+        <v>2.11</v>
+      </c>
+      <c r="W24">
+        <v>47.46</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>18.84</v>
+      </c>
+      <c r="Z24">
+        <v>47.58</v>
+      </c>
+      <c r="AA24">
+        <v>33.59</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>4.79</v>
       </c>
-      <c r="R24">
+      <c r="AH24">
         <v>27.58</v>
       </c>
-      <c r="S24">
+      <c r="AI24">
         <v>2.11</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>1.54</v>
       </c>
-      <c r="U24">
+      <c r="AK24">
         <v>24.55</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>36.79</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>2.65</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>6.81</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>48.76</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>5.54</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>36.79</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
         <v>2.11</v>
       </c>
+      <c r="AX24">
+        <v>24.55</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>4.79</v>
+      </c>
+      <c r="BA24">
+        <v>64.36</v>
+      </c>
+      <c r="BB24">
+        <v>3.91</v>
+      </c>
+      <c r="BC24">
+        <v>2.38</v>
+      </c>
+      <c r="BD24">
+        <v>4.43</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>24.55</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>100</v>
+      </c>
+      <c r="BI24">
+        <v>100</v>
+      </c>
+      <c r="BJ24">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BK24">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>505512</v>
+        <v>66445</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
         <v>202112</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>11213253</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>6099601721</v>
       </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25">
+        <v>94</v>
+      </c>
+      <c r="J25">
         <v>4812956000</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>95</v>
       </c>
       <c r="M25">
         <v>4650718</v>
@@ -3043,96 +5293,186 @@
         <v>55844</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>43.4</v>
+      </c>
+      <c r="T25">
+        <v>40.12</v>
+      </c>
+      <c r="U25">
+        <v>10.81</v>
+      </c>
+      <c r="V25">
+        <v>2.7</v>
+      </c>
+      <c r="W25">
+        <v>2.97</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>41.12</v>
+      </c>
+      <c r="Z25">
+        <v>44.87</v>
+      </c>
+      <c r="AA25">
+        <v>14.01</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>1.81</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>45.63</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>0.78</v>
       </c>
-      <c r="W25">
+      <c r="AM25">
         <v>2.57</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>0.58</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>48.62</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>44.97</v>
       </c>
-      <c r="AD25">
+      <c r="AT25">
         <v>52.38</v>
       </c>
-      <c r="AE25">
+      <c r="AU25">
         <v>1.72</v>
       </c>
-      <c r="AF25">
+      <c r="AV25">
         <v>0.93</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0.78</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>4.39</v>
+      </c>
+      <c r="BB25">
+        <v>46.38</v>
+      </c>
+      <c r="BC25">
+        <v>48.45</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0.78</v>
+      </c>
+      <c r="BG25">
+        <v>1.81</v>
+      </c>
+      <c r="BH25">
+        <v>100</v>
+      </c>
+      <c r="BI25">
+        <v>100</v>
+      </c>
+      <c r="BJ25">
+        <v>25</v>
+      </c>
+      <c r="BK25">
+        <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>527833</v>
+        <v>69275</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26">
         <v>202201</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2022</v>
       </c>
-      <c r="E26">
-        <v>11213253</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>6099601721</v>
       </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26">
+        <v>94</v>
+      </c>
+      <c r="J26">
         <v>4812956000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>95</v>
       </c>
       <c r="M26">
         <v>14999538</v>
@@ -3144,96 +5484,186 @@
         <v>83813</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>5.46</v>
+      </c>
+      <c r="T26">
+        <v>2.66</v>
+      </c>
+      <c r="U26">
+        <v>16.99</v>
+      </c>
+      <c r="V26">
+        <v>33.09</v>
+      </c>
+      <c r="W26">
+        <v>41.8</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>33.01</v>
+      </c>
+      <c r="Z26">
+        <v>56.18</v>
+      </c>
+      <c r="AA26">
+        <v>10.81</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>0.75</v>
       </c>
-      <c r="S26">
+      <c r="AI26">
         <v>1.19</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>4.82</v>
       </c>
-      <c r="V26">
+      <c r="AL26">
         <v>26.02</v>
       </c>
-      <c r="W26">
+      <c r="AM26">
         <v>40.85</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>21.14</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>5.22</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
         <v>39.73</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>60.27</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>30.84</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>35.51</v>
+      </c>
+      <c r="BA26">
+        <v>27.65</v>
+      </c>
+      <c r="BB26">
+        <v>3.74</v>
+      </c>
+      <c r="BC26">
+        <v>2.25</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>30.84</v>
+      </c>
+      <c r="BG26">
+        <v>4.59</v>
+      </c>
+      <c r="BH26">
+        <v>100</v>
+      </c>
+      <c r="BI26">
+        <v>100</v>
+      </c>
+      <c r="BJ26">
+        <v>6.3</v>
+      </c>
+      <c r="BK26">
+        <v>31.3</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>550108</v>
+        <v>72108</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
         <v>202202</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2022</v>
       </c>
-      <c r="E27">
-        <v>11213253</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>6099601721</v>
       </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27">
+        <v>94</v>
+      </c>
+      <c r="J27">
         <v>4812956000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>95</v>
       </c>
       <c r="M27">
         <v>7068997</v>
@@ -3245,96 +5675,186 @@
         <v>152189</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.91</v>
+      </c>
+      <c r="U27">
+        <v>31.39</v>
+      </c>
+      <c r="V27">
+        <v>0.39</v>
+      </c>
+      <c r="W27">
+        <v>1.6</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>30.04</v>
+      </c>
+      <c r="Z27">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>1.2</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
         <v>0.26</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>0.14</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
         <v>31.39</v>
       </c>
-      <c r="X27">
+      <c r="AN27">
         <v>1.9</v>
       </c>
-      <c r="Y27">
+      <c r="AO27">
         <v>66.31</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
         <v>32.34</v>
       </c>
-      <c r="AE27">
+      <c r="AU27">
         <v>66.45</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
         <v>1.2</v>
       </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>31.39</v>
+      </c>
+      <c r="BA27">
+        <v>0.95</v>
+      </c>
+      <c r="BB27">
+        <v>67.3</v>
+      </c>
+      <c r="BC27">
+        <v>0.36</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>99.86</v>
+      </c>
+      <c r="BI27">
+        <v>99.86</v>
+      </c>
+      <c r="BJ27">
+        <v>42.9</v>
+      </c>
+      <c r="BK27">
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>572396</v>
+        <v>74948</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
         <v>202203</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2022</v>
       </c>
-      <c r="E28">
-        <v>11213253</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>6099601721</v>
       </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28">
+        <v>94</v>
+      </c>
+      <c r="J28">
         <v>4812956000</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>95</v>
       </c>
       <c r="M28">
         <v>2825495</v>
@@ -3346,96 +5866,186 @@
         <v>55650</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>4.91</v>
+      </c>
+      <c r="T28">
+        <v>31.64</v>
+      </c>
+      <c r="U28">
+        <v>40.38</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>23.07</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>2.25</v>
+      </c>
+      <c r="Z28">
+        <v>86.97</v>
+      </c>
+      <c r="AA28">
+        <v>10.78</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1.46</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
         <v>1.28</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
         <v>95.42</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
         <v>1.46</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>7.48</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>89.79000000000001</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>1.28</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>1.28</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>1.85</v>
+      </c>
+      <c r="BB28">
+        <v>1.46</v>
+      </c>
+      <c r="BC28">
+        <v>95.42</v>
+      </c>
+      <c r="BD28">
+        <v>1.85</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>1.28</v>
+      </c>
+      <c r="BH28">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="BI28">
+        <v>100</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>594783</v>
+        <v>77794</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
         <v>202204</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2022</v>
       </c>
-      <c r="E29">
-        <v>11213253</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>6099601721</v>
       </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29">
+        <v>94</v>
+      </c>
+      <c r="J29">
         <v>4812956000</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
       </c>
       <c r="M29">
         <v>2156469</v>
@@ -3447,7 +6057,7 @@
         <v>28113</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3456,87 +6066,177 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>2.06</v>
+      </c>
+      <c r="T29">
+        <v>20.61</v>
+      </c>
+      <c r="U29">
+        <v>12.83</v>
+      </c>
+      <c r="V29">
+        <v>2.49</v>
+      </c>
+      <c r="W29">
+        <v>62.01</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>10.86</v>
+      </c>
+      <c r="Z29">
+        <v>89.14</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
         <v>32.96</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
         <v>4.34</v>
       </c>
-      <c r="V29">
+      <c r="AL29">
         <v>1.68</v>
       </c>
-      <c r="W29">
+      <c r="AM29">
         <v>2.75</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>15.41</v>
       </c>
-      <c r="Y29">
+      <c r="AO29">
         <v>42.85</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
         <v>68.2</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>4.43</v>
       </c>
-      <c r="AF29">
+      <c r="AV29">
         <v>24.88</v>
       </c>
-      <c r="AG29">
+      <c r="AW29">
         <v>2.49</v>
       </c>
+      <c r="AX29">
+        <v>6.02</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>2.75</v>
+      </c>
+      <c r="BB29">
+        <v>48.38</v>
+      </c>
+      <c r="BC29">
+        <v>42.85</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>4.34</v>
+      </c>
+      <c r="BG29">
+        <v>0.36</v>
+      </c>
+      <c r="BH29">
+        <v>92.39</v>
+      </c>
+      <c r="BI29">
+        <v>100</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>22.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>617181</v>
+        <v>80644</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30">
         <v>202205</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="E30">
-        <v>11213253</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>6099601721</v>
       </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30">
+        <v>94</v>
+      </c>
+      <c r="J30">
         <v>4812956000</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>95</v>
       </c>
       <c r="M30">
         <v>3246469</v>
@@ -3548,58 +6248,148 @@
         <v>31710</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>22.77</v>
+      </c>
+      <c r="T30">
+        <v>17.55</v>
+      </c>
+      <c r="U30">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="V30">
+        <v>43.36</v>
+      </c>
+      <c r="W30">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>3.78</v>
+      </c>
+      <c r="Z30">
+        <v>50</v>
+      </c>
+      <c r="AA30">
+        <v>45.98</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.24</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>1.55</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>28.38</v>
       </c>
-      <c r="T30">
+      <c r="AJ30">
         <v>64.93000000000001</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>1.12</v>
       </c>
-      <c r="W30">
+      <c r="AM30">
         <v>0.95</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>2.59</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>0.49</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>2.07</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>11.57</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>2.49</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>3.71</v>
       </c>
-      <c r="AG30">
+      <c r="AW30">
         <v>80.16</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>2.07</v>
+      </c>
+      <c r="BA30">
+        <v>4.13</v>
+      </c>
+      <c r="BB30">
+        <v>28.38</v>
+      </c>
+      <c r="BC30">
+        <v>65.42</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>2.07</v>
+      </c>
+      <c r="BH30">
+        <v>18.89</v>
+      </c>
+      <c r="BI30">
+        <v>18.89</v>
+      </c>
+      <c r="BJ30">
+        <v>9.1</v>
+      </c>
+      <c r="BK30">
+        <v>27.3</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4812956000.xlsx
+++ b/시장분석용_정보/시장분석용_4812956000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>2174</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>6099601721</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4812956000</v>
@@ -708,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>10788965</v>
@@ -720,117 +624,69 @@
         <v>74064</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>26.14</v>
+        <v>4.35</v>
       </c>
       <c r="S2">
-        <v>7.01</v>
+        <v>24.96</v>
       </c>
       <c r="T2">
-        <v>27.58</v>
+        <v>5.79</v>
       </c>
       <c r="U2">
-        <v>30.73</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>8.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="X2">
-        <v>4.27</v>
+        <v>5.19</v>
       </c>
       <c r="Y2">
-        <v>35.07</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>60.66</v>
+        <v>0.5</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>57.09</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>23.12</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>4.35</v>
-      </c>
-      <c r="AI2">
-        <v>24.96</v>
-      </c>
-      <c r="AJ2">
-        <v>5.79</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>58.4</v>
-      </c>
-      <c r="AN2">
-        <v>5.19</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>57.09</v>
-      </c>
-      <c r="AS2">
-        <v>23.12</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
         <v>19.29</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>4941</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>6099601721</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4812956000</v>
@@ -854,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>912351</v>
@@ -866,117 +722,69 @@
         <v>21838</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>4.01</v>
+        <v>8.41</v>
       </c>
       <c r="S3">
-        <v>15.86</v>
+        <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>4.12</v>
+      </c>
+      <c r="V3">
         <v>12.94</v>
       </c>
-      <c r="U3">
-        <v>63.08</v>
-      </c>
-      <c r="V3">
-        <v>4.12</v>
-      </c>
       <c r="W3">
-        <v>0</v>
+        <v>49.74</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="Y3">
-        <v>37.72</v>
+        <v>0</v>
       </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>11.45</v>
+      </c>
+      <c r="AC3">
         <v>62.28</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.34</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>8.41</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>4.12</v>
-      </c>
-      <c r="AL3">
         <v>12.94</v>
       </c>
-      <c r="AM3">
-        <v>49.74</v>
-      </c>
-      <c r="AN3">
-        <v>11.45</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>11.45</v>
-      </c>
-      <c r="AS3">
-        <v>62.28</v>
-      </c>
-      <c r="AT3">
-        <v>13.34</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>12.94</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>7702</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>6099601721</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4812956000</v>
@@ -1000,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>353384</v>
@@ -1012,117 +820,69 @@
         <v>8463</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>37.52</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S4">
-        <v>41.21</v>
+        <v>28.21</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>12.11</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>8.119999999999999</v>
       </c>
-      <c r="U4">
-        <v>50.66</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>19.2</v>
-      </c>
-      <c r="Y4">
-        <v>57.9</v>
-      </c>
-      <c r="Z4">
-        <v>22.9</v>
-      </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>28.21</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>51.55</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="AF4">
-        <v>37.52</v>
-      </c>
-      <c r="AG4">
-        <v>14.03</v>
-      </c>
-      <c r="AH4">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>28.21</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>12.11</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>28.21</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>51.55</v>
-      </c>
-      <c r="AU4">
-        <v>12.11</v>
-      </c>
-      <c r="AV4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>10460</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>6099601721</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4812956000</v>
@@ -1146,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>963386</v>
@@ -1158,117 +918,69 @@
         <v>17427</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>12.94</v>
       </c>
       <c r="S5">
-        <v>23.11</v>
+        <v>47.52</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>5.37</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>21.18</v>
       </c>
-      <c r="U5">
-        <v>47.52</v>
-      </c>
-      <c r="V5">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>26.71</v>
+      </c>
+      <c r="AC5">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AD5">
         <v>8.19</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>14.81</v>
-      </c>
-      <c r="Y5">
-        <v>62.08</v>
-      </c>
-      <c r="Z5">
-        <v>23.11</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>12.99</v>
-      </c>
-      <c r="AH5">
-        <v>12.94</v>
-      </c>
-      <c r="AI5">
-        <v>47.52</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>5.37</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>21.18</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>26.71</v>
-      </c>
-      <c r="AS5">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="AT5">
-        <v>8.19</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>13230</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>6099601721</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4812956000</v>
@@ -1292,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>11116176</v>
@@ -1304,117 +1016,69 @@
         <v>86068</v>
       </c>
       <c r="O6">
-        <v>99.42</v>
+        <v>0</v>
       </c>
       <c r="P6">
+        <v>19.28</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6">
         <v>0.58</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S6">
-        <v>21.01</v>
-      </c>
-      <c r="T6">
-        <v>16.27</v>
-      </c>
       <c r="U6">
-        <v>17.86</v>
+        <v>0.58</v>
       </c>
       <c r="V6">
-        <v>44.05</v>
+        <v>40.77</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>21.55</v>
       </c>
       <c r="X6">
-        <v>22.37</v>
+        <v>16.68</v>
       </c>
       <c r="Y6">
-        <v>58.79</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>18.85</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>16.68</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>29.96</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>12.46</v>
       </c>
       <c r="AF6">
-        <v>19.28</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AJ6">
-        <v>0.58</v>
-      </c>
-      <c r="AK6">
-        <v>0.58</v>
-      </c>
-      <c r="AL6">
-        <v>40.77</v>
-      </c>
-      <c r="AM6">
-        <v>21.55</v>
-      </c>
-      <c r="AN6">
-        <v>16.68</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>16.68</v>
-      </c>
-      <c r="AS6">
-        <v>29.96</v>
-      </c>
-      <c r="AT6">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AU6">
-        <v>12.46</v>
-      </c>
-      <c r="AV6">
         <v>40.21</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>15995</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>6099601721</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4812956000</v>
@@ -1438,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>18918503</v>
@@ -1450,117 +1114,69 @@
         <v>130896</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0.29</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>10.63</v>
+        <v>1.14</v>
       </c>
       <c r="S7">
-        <v>8.23</v>
+        <v>4.09</v>
       </c>
       <c r="T7">
-        <v>66.26000000000001</v>
+        <v>2.18</v>
       </c>
       <c r="U7">
-        <v>0.34</v>
+        <v>1.18</v>
       </c>
       <c r="V7">
-        <v>14.54</v>
+        <v>24.57</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="X7">
-        <v>14.35</v>
+        <v>54.57</v>
       </c>
       <c r="Y7">
-        <v>29.03</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>56.63</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>62.44</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>25.62</v>
       </c>
       <c r="AE7">
-        <v>0.29</v>
+        <v>10.91</v>
       </c>
       <c r="AF7">
-        <v>0.41</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>1.14</v>
-      </c>
-      <c r="AI7">
-        <v>4.09</v>
-      </c>
-      <c r="AJ7">
-        <v>2.18</v>
-      </c>
-      <c r="AK7">
-        <v>1.18</v>
-      </c>
-      <c r="AL7">
-        <v>24.57</v>
-      </c>
-      <c r="AM7">
-        <v>11.57</v>
-      </c>
-      <c r="AN7">
-        <v>54.57</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>1.03</v>
-      </c>
-      <c r="AS7">
-        <v>62.44</v>
-      </c>
-      <c r="AT7">
-        <v>25.62</v>
-      </c>
-      <c r="AU7">
-        <v>10.91</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>18768</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>6099601721</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4812956000</v>
@@ -1584,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>10541788</v>
@@ -1596,52 +1212,52 @@
         <v>137353</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R8">
-        <v>7.56</v>
+        <v>74.33</v>
       </c>
       <c r="S8">
-        <v>11.2</v>
+        <v>2.12</v>
       </c>
       <c r="T8">
-        <v>80.38</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="V8">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="X8">
-        <v>4.82</v>
+        <v>16.99</v>
       </c>
       <c r="Y8">
-        <v>92.42</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>90.77</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1649,64 +1265,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>2.06</v>
-      </c>
-      <c r="AH8">
-        <v>74.33</v>
-      </c>
-      <c r="AI8">
-        <v>2.12</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>3.88</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0.63</v>
-      </c>
-      <c r="AN8">
-        <v>16.99</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>90.77</v>
-      </c>
-      <c r="AS8">
-        <v>7.1</v>
-      </c>
-      <c r="AT8">
-        <v>2.13</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>21537</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>6099601721</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4812956000</v>
@@ -1730,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>13685672</v>
@@ -1742,117 +1310,69 @@
         <v>149472</v>
       </c>
       <c r="O9">
-        <v>92.83</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="R9">
-        <v>7.17</v>
+        <v>1.6</v>
       </c>
       <c r="S9">
-        <v>26.95</v>
+        <v>0.32</v>
       </c>
       <c r="T9">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>18.55</v>
+        <v>13.01</v>
       </c>
       <c r="V9">
-        <v>43.53</v>
+        <v>71.31</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>3.37</v>
+        <v>10.79</v>
       </c>
       <c r="Y9">
-        <v>91.34</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>2.97</v>
-      </c>
-      <c r="AH9">
-        <v>1.6</v>
-      </c>
-      <c r="AI9">
-        <v>0.32</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>13.01</v>
-      </c>
-      <c r="AL9">
-        <v>71.31</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>10.79</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0.74</v>
-      </c>
-      <c r="AS9">
-        <v>98.81999999999999</v>
-      </c>
-      <c r="AT9">
-        <v>0.19</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>24318</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>6099601721</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4812956000</v>
@@ -1876,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>1380859</v>
@@ -1888,117 +1408,69 @@
         <v>30022</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>23.72</v>
+        <v>29.61</v>
       </c>
       <c r="S10">
-        <v>35.49</v>
+        <v>15.69</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>11.1</v>
+      </c>
+      <c r="W10">
         <v>12.84</v>
       </c>
-      <c r="V10">
-        <v>27.94</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
-        <v>2.81</v>
+        <v>28.72</v>
       </c>
       <c r="Y10">
-        <v>24.17</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>73.02</v>
+        <v>2.04</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>35.05</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>38.75</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.04</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>29.61</v>
-      </c>
-      <c r="AI10">
-        <v>15.69</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
         <v>11.1</v>
       </c>
-      <c r="AM10">
-        <v>12.84</v>
-      </c>
-      <c r="AN10">
-        <v>28.72</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>2.04</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>13.06</v>
-      </c>
-      <c r="AS10">
-        <v>35.05</v>
-      </c>
-      <c r="AT10">
-        <v>38.75</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>11.1</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>27115</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>6099601721</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4812956000</v>
@@ -2022,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>4575780</v>
@@ -2034,117 +1506,69 @@
         <v>49628</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>44.93</v>
+        <v>39.18</v>
       </c>
       <c r="S11">
-        <v>40.78</v>
+        <v>2.32</v>
       </c>
       <c r="T11">
-        <v>4.85</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>8.34</v>
+        <v>1.25</v>
       </c>
       <c r="V11">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>51.36</v>
       </c>
       <c r="X11">
-        <v>2.43</v>
+        <v>4.68</v>
       </c>
       <c r="Y11">
-        <v>84.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>13.22</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>5.73</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>41.65</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>52.61</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>1.21</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>39.18</v>
-      </c>
-      <c r="AI11">
-        <v>2.32</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>1.25</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>51.36</v>
-      </c>
-      <c r="AN11">
-        <v>4.68</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>5.73</v>
-      </c>
-      <c r="AS11">
-        <v>41.65</v>
-      </c>
-      <c r="AT11">
-        <v>52.61</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>29902</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>6099601721</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4812956000</v>
@@ -2168,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>6487517</v>
@@ -2180,7 +1604,7 @@
         <v>60229</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>1.21</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2189,108 +1613,60 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>7.98</v>
+        <v>2.2</v>
       </c>
       <c r="S12">
-        <v>2.46</v>
+        <v>8.19</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>5.58</v>
+      </c>
+      <c r="V12">
         <v>0.12</v>
       </c>
-      <c r="U12">
-        <v>0.98</v>
-      </c>
-      <c r="V12">
-        <v>88.45999999999999</v>
-      </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X12">
-        <v>1.03</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="Y12">
-        <v>87.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>11.15</v>
+        <v>1.21</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>80.52</v>
       </c>
       <c r="AE12">
-        <v>1.21</v>
+        <v>0.65</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>2.2</v>
-      </c>
-      <c r="AI12">
-        <v>8.19</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>5.58</v>
-      </c>
-      <c r="AL12">
-        <v>0.12</v>
-      </c>
-      <c r="AM12">
-        <v>1.8</v>
-      </c>
-      <c r="AN12">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1.21</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>8.44</v>
-      </c>
-      <c r="AS12">
-        <v>7.78</v>
-      </c>
-      <c r="AT12">
-        <v>80.52</v>
-      </c>
-      <c r="AU12">
-        <v>0.65</v>
-      </c>
-      <c r="AV12">
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>32689</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>6099601721</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4812956000</v>
@@ -2314,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>6056670</v>
@@ -2326,117 +1702,69 @@
         <v>47380</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>17.55</v>
+        <v>1.56</v>
       </c>
       <c r="S13">
-        <v>38.94</v>
+        <v>32.93</v>
       </c>
       <c r="T13">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>36.19</v>
+        <v>8.25</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>18.32</v>
       </c>
       <c r="X13">
-        <v>2.28</v>
+        <v>38.26</v>
       </c>
       <c r="Y13">
-        <v>45.64</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>52.08</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>34.66</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>36.83</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF13">
-        <v>0.68</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>1.56</v>
-      </c>
-      <c r="AI13">
-        <v>32.93</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>8.25</v>
-      </c>
-      <c r="AM13">
-        <v>18.32</v>
-      </c>
-      <c r="AN13">
-        <v>38.26</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>34.66</v>
-      </c>
-      <c r="AS13">
-        <v>36.83</v>
-      </c>
-      <c r="AT13">
-        <v>11.07</v>
-      </c>
-      <c r="AU13">
-        <v>1.09</v>
-      </c>
-      <c r="AV13">
         <v>16.35</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>35484</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>6099601721</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4812956000</v>
@@ -2460,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>4712649</v>
@@ -2472,7 +1800,7 @@
         <v>92750</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2481,108 +1809,60 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>24.91</v>
+        <v>0.37</v>
       </c>
       <c r="S14">
-        <v>0.99</v>
+        <v>91.64</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>4.33</v>
+      </c>
+      <c r="V14">
         <v>1.82</v>
       </c>
-      <c r="U14">
-        <v>0.37</v>
-      </c>
-      <c r="V14">
-        <v>71.91</v>
-      </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="Y14">
-        <v>94.84</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>53.91</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0.37</v>
-      </c>
-      <c r="AI14">
-        <v>91.64</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>4.33</v>
-      </c>
-      <c r="AL14">
-        <v>1.82</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>1.83</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>38.1</v>
-      </c>
-      <c r="AS14">
-        <v>6.17</v>
-      </c>
-      <c r="AT14">
-        <v>53.91</v>
-      </c>
-      <c r="AU14">
-        <v>1.82</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>38279</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>6099601721</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4812956000</v>
@@ -2606,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>3777281</v>
@@ -2618,117 +1898,69 @@
         <v>41272</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>2.25</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="R15">
-        <v>6.85</v>
+        <v>20.19</v>
       </c>
       <c r="S15">
-        <v>9.76</v>
+        <v>7.39</v>
       </c>
       <c r="T15">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>32.95</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>48.28</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0.89</v>
+        <v>65.23</v>
       </c>
       <c r="Y15">
-        <v>83.05</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>16.06</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>67.02</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>2.25</v>
+        <v>28.04</v>
       </c>
       <c r="AF15">
-        <v>2.15</v>
-      </c>
-      <c r="AG15">
-        <v>2.79</v>
-      </c>
-      <c r="AH15">
-        <v>20.19</v>
-      </c>
-      <c r="AI15">
-        <v>7.39</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>65.23</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>67.02</v>
-      </c>
-      <c r="AS15">
-        <v>4.94</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>28.04</v>
-      </c>
-      <c r="AV15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>41069</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>6099601721</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4812956000</v>
@@ -2752,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>9283617</v>
@@ -2764,117 +1996,69 @@
         <v>55467</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="R16">
-        <v>41.87</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>23.15</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="T16">
-        <v>16.46</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>5.68</v>
+        <v>0.28</v>
       </c>
       <c r="V16">
-        <v>12.84</v>
+        <v>0.18</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>23.89</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="Y16">
-        <v>43.35</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>32.76</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>76.91</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AF16">
-        <v>1.86</v>
-      </c>
-      <c r="AG16">
-        <v>0.38</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0.28</v>
-      </c>
-      <c r="AL16">
-        <v>0.18</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>88.18000000000001</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>76.91</v>
-      </c>
-      <c r="AS16">
-        <v>21</v>
-      </c>
-      <c r="AT16">
-        <v>1.57</v>
-      </c>
-      <c r="AU16">
-        <v>0.18</v>
-      </c>
-      <c r="AV16">
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>43869</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>6099601721</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4812956000</v>
@@ -2898,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>3730369</v>
@@ -2910,7 +2094,7 @@
         <v>55838</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2919,108 +2103,60 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>14.84</v>
+        <v>25.09</v>
       </c>
       <c r="S17">
-        <v>48.22</v>
+        <v>50.48</v>
       </c>
       <c r="T17">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>31.42</v>
+        <v>12.98</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="X17">
-        <v>22.04</v>
+        <v>7.65</v>
       </c>
       <c r="Y17">
-        <v>8.32</v>
+        <v>2.26</v>
       </c>
       <c r="Z17">
-        <v>69.64</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>50.7</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>6.89</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>33.82</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>25.09</v>
-      </c>
-      <c r="AI17">
-        <v>50.48</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>12.98</v>
-      </c>
-      <c r="AM17">
-        <v>3.82</v>
-      </c>
-      <c r="AN17">
-        <v>7.65</v>
-      </c>
-      <c r="AO17">
-        <v>2.26</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>50.7</v>
-      </c>
-      <c r="AS17">
-        <v>6.89</v>
-      </c>
-      <c r="AT17">
-        <v>33.82</v>
-      </c>
-      <c r="AU17">
-        <v>6.34</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>46677</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>6099601721</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4812956000</v>
@@ -3044,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>4610697</v>
@@ -3056,117 +2192,69 @@
         <v>53441</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R18">
-        <v>7.53</v>
+        <v>12.53</v>
       </c>
       <c r="S18">
-        <v>7.13</v>
+        <v>80.3</v>
       </c>
       <c r="T18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>80.76000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="V18">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2.45</v>
+        <v>4.11</v>
       </c>
       <c r="Y18">
-        <v>84.37</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>84.77</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1.01</v>
-      </c>
-      <c r="AH18">
-        <v>12.53</v>
-      </c>
-      <c r="AI18">
-        <v>80.3</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>2.06</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>4.11</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>84.77</v>
-      </c>
-      <c r="AS18">
-        <v>13.64</v>
-      </c>
-      <c r="AT18">
-        <v>0.95</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>49494</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>6099601721</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4812956000</v>
@@ -3190,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>6994412</v>
@@ -3202,117 +2290,69 @@
         <v>92287</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>25.28</v>
       </c>
       <c r="R19">
-        <v>2.48</v>
+        <v>53.05</v>
       </c>
       <c r="S19">
-        <v>28.23</v>
+        <v>2.63</v>
       </c>
       <c r="T19">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>25.28</v>
+        <v>2.2</v>
       </c>
       <c r="V19">
-        <v>42.42</v>
+        <v>0.98</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="X19">
-        <v>1.5</v>
+        <v>14.95</v>
       </c>
       <c r="Y19">
-        <v>30.02</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>68.48</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>43.04</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>55.38</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.48</v>
-      </c>
-      <c r="AG19">
-        <v>25.28</v>
-      </c>
-      <c r="AH19">
-        <v>53.05</v>
-      </c>
-      <c r="AI19">
-        <v>2.63</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>2.2</v>
-      </c>
-      <c r="AL19">
-        <v>0.98</v>
-      </c>
-      <c r="AM19">
-        <v>0.42</v>
-      </c>
-      <c r="AN19">
-        <v>14.95</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>43.04</v>
-      </c>
-      <c r="AS19">
-        <v>55.38</v>
-      </c>
-      <c r="AT19">
-        <v>1.58</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>52310</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>6099601721</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4812956000</v>
@@ -3336,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>9360367</v>
@@ -3348,117 +2388,69 @@
         <v>143231</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>54.39</v>
       </c>
       <c r="R20">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>22.15</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>54.91</v>
+        <v>0.38</v>
       </c>
       <c r="V20">
-        <v>20.69</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="X20">
-        <v>1.12</v>
+        <v>0.45</v>
       </c>
       <c r="Y20">
-        <v>78.52</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>57.66</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>22.79</v>
       </c>
       <c r="AE20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>54.39</v>
-      </c>
-      <c r="AH20">
-        <v>2.05</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0.38</v>
-      </c>
-      <c r="AL20">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AM20">
-        <v>41.5</v>
-      </c>
-      <c r="AN20">
-        <v>0.45</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0.3</v>
-      </c>
-      <c r="AS20">
-        <v>57.66</v>
-      </c>
-      <c r="AT20">
-        <v>22.79</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
         <v>19.24</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>55130</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>6099601721</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4812956000</v>
@@ -3482,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>2714434</v>
@@ -3494,117 +2486,69 @@
         <v>28405</v>
       </c>
       <c r="O21">
-        <v>98.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21">
+        <v>0.28</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>10.39</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2.39</v>
+      </c>
+      <c r="V21">
+        <v>1.39</v>
+      </c>
+      <c r="W21">
+        <v>6.78</v>
+      </c>
+      <c r="X21">
+        <v>76.97</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>1.82</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>17.97</v>
-      </c>
-      <c r="S21">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="T21">
-        <v>69.58</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>4.07</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>69.88</v>
-      </c>
-      <c r="Y21">
-        <v>18.15</v>
-      </c>
-      <c r="Z21">
-        <v>11.97</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
-        <v>0</v>
+        <v>11.65</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>86.53</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.28</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>10.39</v>
-      </c>
-      <c r="AI21">
-        <v>1.8</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>2.39</v>
-      </c>
-      <c r="AL21">
-        <v>1.39</v>
-      </c>
-      <c r="AM21">
-        <v>6.78</v>
-      </c>
-      <c r="AN21">
-        <v>76.97</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1.82</v>
-      </c>
-      <c r="AS21">
-        <v>11.65</v>
-      </c>
-      <c r="AT21">
-        <v>86.53</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>57952</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>6099601721</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4812956000</v>
@@ -3628,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>7021201</v>
@@ -3640,117 +2584,69 @@
         <v>72321</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="R22">
-        <v>4.11</v>
+        <v>14.55</v>
       </c>
       <c r="S22">
-        <v>31.18</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>53.37</v>
+        <v>6.23</v>
       </c>
       <c r="U22">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="X22">
-        <v>8.06</v>
+        <v>40.11</v>
       </c>
       <c r="Y22">
-        <v>53.23</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>38.71</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>51.18</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>2.11</v>
-      </c>
-      <c r="AH22">
-        <v>14.55</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>6.23</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>37</v>
-      </c>
-      <c r="AN22">
-        <v>40.11</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>39.3</v>
-      </c>
-      <c r="AS22">
-        <v>9.15</v>
-      </c>
-      <c r="AT22">
-        <v>51.18</v>
-      </c>
-      <c r="AU22">
-        <v>0.38</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>60783</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>6099601721</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4812956000</v>
@@ -3774,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>13116795</v>
@@ -3786,117 +2682,69 @@
         <v>258550</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="S23">
-        <v>78.17</v>
+        <v>0.41</v>
       </c>
       <c r="T23">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>19.86</v>
+        <v>0.18</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>18.37</v>
       </c>
       <c r="X23">
-        <v>0.41</v>
+        <v>77.67</v>
       </c>
       <c r="Y23">
-        <v>98.67</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>95.17</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AF23">
-        <v>0.41</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>2.95</v>
-      </c>
-      <c r="AI23">
-        <v>0.41</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0.18</v>
-      </c>
-      <c r="AM23">
-        <v>18.37</v>
-      </c>
-      <c r="AN23">
-        <v>77.67</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0.18</v>
-      </c>
-      <c r="AS23">
-        <v>3.68</v>
-      </c>
-      <c r="AT23">
-        <v>95.17</v>
-      </c>
-      <c r="AU23">
-        <v>0.97</v>
-      </c>
-      <c r="AV23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>63615</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>6099601721</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4812956000</v>
@@ -3920,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>10553036</v>
@@ -3932,117 +2780,69 @@
         <v>101732</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>27.58</v>
       </c>
       <c r="R24">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="S24">
-        <v>0.44</v>
+        <v>1.54</v>
       </c>
       <c r="T24">
-        <v>47.74</v>
+        <v>24.55</v>
       </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>36.79</v>
+      </c>
+      <c r="X24">
+        <v>2.65</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>6.81</v>
+      </c>
+      <c r="AC24">
+        <v>48.76</v>
+      </c>
+      <c r="AD24">
+        <v>5.54</v>
+      </c>
+      <c r="AE24">
+        <v>36.79</v>
+      </c>
+      <c r="AF24">
         <v>2.11</v>
       </c>
-      <c r="V24">
-        <v>47.46</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>18.84</v>
-      </c>
-      <c r="Y24">
-        <v>47.58</v>
-      </c>
-      <c r="Z24">
-        <v>33.59</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>4.79</v>
-      </c>
-      <c r="AG24">
-        <v>27.58</v>
-      </c>
-      <c r="AH24">
-        <v>2.11</v>
-      </c>
-      <c r="AI24">
-        <v>1.54</v>
-      </c>
-      <c r="AJ24">
-        <v>24.55</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>36.79</v>
-      </c>
-      <c r="AN24">
-        <v>2.65</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>6.81</v>
-      </c>
-      <c r="AS24">
-        <v>48.76</v>
-      </c>
-      <c r="AT24">
-        <v>5.54</v>
-      </c>
-      <c r="AU24">
-        <v>36.79</v>
-      </c>
-      <c r="AV24">
-        <v>2.11</v>
-      </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>66445</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>6099601721</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4812956000</v>
@@ -4066,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>4650718</v>
@@ -4078,117 +2878,69 @@
         <v>55844</v>
       </c>
       <c r="O25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R25">
-        <v>43.4</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>40.12</v>
+        <v>45.63</v>
       </c>
       <c r="T25">
-        <v>10.81</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>2.7</v>
+        <v>0.78</v>
       </c>
       <c r="V25">
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="X25">
-        <v>41.12</v>
+        <v>48.62</v>
       </c>
       <c r="Y25">
-        <v>44.87</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>14.01</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>44.97</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>1.81</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>45.63</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0.78</v>
-      </c>
-      <c r="AL25">
-        <v>2.57</v>
-      </c>
-      <c r="AM25">
-        <v>0.58</v>
-      </c>
-      <c r="AN25">
-        <v>48.62</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>44.97</v>
-      </c>
-      <c r="AS25">
-        <v>52.38</v>
-      </c>
-      <c r="AT25">
-        <v>1.72</v>
-      </c>
-      <c r="AU25">
-        <v>0.93</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>69275</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>6099601721</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>4812956000</v>
@@ -4212,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>14999538</v>
@@ -4224,40 +2976,40 @@
         <v>83813</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R26">
-        <v>5.46</v>
+        <v>1.19</v>
       </c>
       <c r="S26">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>16.99</v>
+        <v>4.82</v>
       </c>
       <c r="U26">
-        <v>33.09</v>
+        <v>26.02</v>
       </c>
       <c r="V26">
-        <v>41.8</v>
+        <v>40.85</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>21.14</v>
       </c>
       <c r="X26">
-        <v>33.01</v>
+        <v>5.22</v>
       </c>
       <c r="Y26">
-        <v>56.18</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>10.81</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -4266,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>39.73</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>60.27</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4277,64 +3029,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0.75</v>
-      </c>
-      <c r="AH26">
-        <v>1.19</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>4.82</v>
-      </c>
-      <c r="AK26">
-        <v>26.02</v>
-      </c>
-      <c r="AL26">
-        <v>40.85</v>
-      </c>
-      <c r="AM26">
-        <v>21.14</v>
-      </c>
-      <c r="AN26">
-        <v>5.22</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>39.73</v>
-      </c>
-      <c r="AT26">
-        <v>60.27</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>72108</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>6099601721</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>4812956000</v>
@@ -4358,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>7068997</v>
@@ -4370,117 +3074,69 @@
         <v>152189</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="R27">
-        <v>65.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.91</v>
+        <v>0.14</v>
       </c>
       <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>31.39</v>
       </c>
-      <c r="U27">
-        <v>0.39</v>
-      </c>
-      <c r="V27">
-        <v>1.6</v>
-      </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X27">
-        <v>30.04</v>
+        <v>66.31</v>
       </c>
       <c r="Y27">
-        <v>68.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>32.34</v>
+      </c>
+      <c r="AD27">
+        <v>66.45</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>1.2</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0.26</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0.14</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>31.39</v>
-      </c>
-      <c r="AM27">
-        <v>1.9</v>
-      </c>
-      <c r="AN27">
-        <v>66.31</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>32.34</v>
-      </c>
-      <c r="AT27">
-        <v>66.45</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>1.2</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>74948</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>6099601721</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>4812956000</v>
@@ -4504,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>2825495</v>
@@ -4516,52 +3172,52 @@
         <v>55650</v>
       </c>
       <c r="O28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R28">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>31.64</v>
+        <v>1.46</v>
       </c>
       <c r="T28">
-        <v>40.38</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>23.07</v>
+        <v>1.28</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>2.25</v>
+        <v>95.42</v>
       </c>
       <c r="Y28">
-        <v>86.97</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>10.78</v>
+        <v>1.46</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4569,64 +3225,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>1.85</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>1.46</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1.28</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>95.42</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1.46</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>7.48</v>
-      </c>
-      <c r="AS28">
-        <v>89.79000000000001</v>
-      </c>
-      <c r="AT28">
-        <v>1.28</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>77794</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>6099601721</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>4812956000</v>
@@ -4650,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>2156469</v>
@@ -4662,7 +3270,7 @@
         <v>28113</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -4671,108 +3279,60 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>2.06</v>
+        <v>32.96</v>
       </c>
       <c r="S29">
-        <v>20.61</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>12.83</v>
+        <v>4.34</v>
       </c>
       <c r="U29">
+        <v>1.68</v>
+      </c>
+      <c r="V29">
+        <v>2.75</v>
+      </c>
+      <c r="W29">
+        <v>15.41</v>
+      </c>
+      <c r="X29">
+        <v>42.85</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>68.2</v>
+      </c>
+      <c r="AD29">
+        <v>4.43</v>
+      </c>
+      <c r="AE29">
+        <v>24.88</v>
+      </c>
+      <c r="AF29">
         <v>2.49</v>
       </c>
-      <c r="V29">
-        <v>62.01</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>10.86</v>
-      </c>
-      <c r="Y29">
-        <v>89.14</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>32.96</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>4.34</v>
-      </c>
-      <c r="AK29">
-        <v>1.68</v>
-      </c>
-      <c r="AL29">
-        <v>2.75</v>
-      </c>
-      <c r="AM29">
-        <v>15.41</v>
-      </c>
-      <c r="AN29">
-        <v>42.85</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>68.2</v>
-      </c>
-      <c r="AT29">
-        <v>4.43</v>
-      </c>
-      <c r="AU29">
-        <v>24.88</v>
-      </c>
-      <c r="AV29">
-        <v>2.49</v>
-      </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>80644</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>6099601721</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>4812956000</v>
@@ -4796,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>3246469</v>
@@ -4808,105 +3368,57 @@
         <v>31710</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="R30">
-        <v>22.77</v>
+        <v>28.38</v>
       </c>
       <c r="S30">
-        <v>17.55</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="T30">
-        <v>8.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>43.36</v>
+        <v>1.12</v>
       </c>
       <c r="V30">
-        <v>8.279999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="X30">
-        <v>3.78</v>
+        <v>0.49</v>
       </c>
       <c r="Y30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>45.98</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="AD30">
-        <v>0.24</v>
+        <v>2.49</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1.55</v>
-      </c>
-      <c r="AH30">
-        <v>28.38</v>
-      </c>
-      <c r="AI30">
-        <v>64.93000000000001</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>1.12</v>
-      </c>
-      <c r="AL30">
-        <v>0.95</v>
-      </c>
-      <c r="AM30">
-        <v>2.59</v>
-      </c>
-      <c r="AN30">
-        <v>0.49</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>2.07</v>
-      </c>
-      <c r="AS30">
-        <v>11.57</v>
-      </c>
-      <c r="AT30">
-        <v>2.49</v>
-      </c>
-      <c r="AU30">
-        <v>3.71</v>
-      </c>
-      <c r="AV30">
         <v>80.16</v>
       </c>
     </row>
